--- a/data/trans_orig/P05A07-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P05A07-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>214531</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>192933</v>
+        <v>193394</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>240332</v>
+        <v>238330</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4906812869013889</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.441280795260129</v>
+        <v>0.4423363063193705</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5496938195718454</v>
+        <v>0.5451155067864953</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>144</v>
@@ -764,19 +764,19 @@
         <v>157501</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>138958</v>
+        <v>137658</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>175841</v>
+        <v>175246</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5008712275600764</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4419019659372052</v>
+        <v>0.4377673595484858</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5591948876192858</v>
+        <v>0.5573027846516944</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>338</v>
@@ -785,19 +785,19 @@
         <v>372032</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>341207</v>
+        <v>344940</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>404389</v>
+        <v>400802</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.494944183333961</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4539342850512709</v>
+        <v>0.4589009259895549</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5379909485870505</v>
+        <v>0.5332193962076446</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>158704</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135140</v>
+        <v>136813</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>178625</v>
+        <v>178323</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3629914365669349</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3090949675260968</v>
+        <v>0.3129214970914796</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4085557770891042</v>
+        <v>0.4078638402176422</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -835,19 +835,19 @@
         <v>111939</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>94520</v>
+        <v>95078</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>128690</v>
+        <v>131263</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3559799740325768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3005834434448558</v>
+        <v>0.3023602026166545</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4092500359866908</v>
+        <v>0.4174328283543904</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>247</v>
@@ -856,19 +856,19 @@
         <v>270643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>244122</v>
+        <v>245158</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>301744</v>
+        <v>297369</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3600582361071907</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3247743613133849</v>
+        <v>0.3261533656224627</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.4014345480178994</v>
+        <v>0.3956136188153785</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>63976</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>50092</v>
+        <v>49174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79864</v>
+        <v>80229</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1463272765316762</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1145720665552687</v>
+        <v>0.1124725649436113</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1826674609527749</v>
+        <v>0.1835021316593921</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>39</v>
@@ -906,19 +906,19 @@
         <v>45014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>33308</v>
+        <v>33761</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>59934</v>
+        <v>59884</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1431487984073468</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1059239474286428</v>
+        <v>0.1073629329358121</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1905963914632158</v>
+        <v>0.1904384052603318</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>102</v>
@@ -927,19 +927,19 @@
         <v>108990</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>90493</v>
+        <v>89510</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>131279</v>
+        <v>131665</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1449975805588483</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1203896522599033</v>
+        <v>0.1190817055990567</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1746508940434288</v>
+        <v>0.1751642247258883</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>217204</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>195240</v>
+        <v>194888</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>239077</v>
+        <v>239184</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5186380682046499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4661935520846639</v>
+        <v>0.4653525282232001</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5708654531157104</v>
+        <v>0.5711220007925555</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>148</v>
@@ -1052,19 +1052,19 @@
         <v>163517</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>143880</v>
+        <v>144233</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>182613</v>
+        <v>182048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4862357635563351</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4278415185074325</v>
+        <v>0.4288913762121492</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5430197998462851</v>
+        <v>0.5413393561517614</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>344</v>
@@ -1073,19 +1073,19 @@
         <v>380721</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>353135</v>
+        <v>353492</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>410239</v>
+        <v>411661</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5042071367733684</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4676732001740921</v>
+        <v>0.4681461379469468</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5432995023699833</v>
+        <v>0.5451818447109241</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>152343</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>129488</v>
+        <v>131003</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172558</v>
+        <v>174476</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3637629396842614</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.3091911146545617</v>
+        <v>0.3128068835601516</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4120334111590614</v>
+        <v>0.416613163437397</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>104</v>
@@ -1123,19 +1123,19 @@
         <v>117246</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>100372</v>
+        <v>99665</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>136853</v>
+        <v>139020</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3486431509368998</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2984678995003292</v>
+        <v>0.2963655266596366</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4069474975408728</v>
+        <v>0.4133897018122257</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>238</v>
@@ -1144,19 +1144,19 @@
         <v>269589</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>242703</v>
+        <v>242434</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>297511</v>
+        <v>299189</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3570290780951912</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.321422706375072</v>
+        <v>0.3210673107302299</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3940084958621551</v>
+        <v>0.3962307130169686</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>49250</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36558</v>
+        <v>36802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>65338</v>
+        <v>64615</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1175989921110887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08729326820405213</v>
+        <v>0.08787573853315039</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1560136351264873</v>
+        <v>0.1542872420016155</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>52</v>
@@ -1194,19 +1194,19 @@
         <v>55529</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42173</v>
+        <v>40973</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>72483</v>
+        <v>70768</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.165121085506765</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1254052867523726</v>
+        <v>0.1218384116270675</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2155359172589477</v>
+        <v>0.2104360688408413</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>97</v>
@@ -1215,19 +1215,19 @@
         <v>104779</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>84932</v>
+        <v>84263</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>123668</v>
+        <v>126664</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1387637851314404</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1124794698650367</v>
+        <v>0.1115933175649895</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1637790974492057</v>
+        <v>0.1677466952890771</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>324872</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>300512</v>
+        <v>297963</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>351779</v>
+        <v>351156</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5174176869744358</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4786202073517354</v>
+        <v>0.4745605201550149</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5602715172771867</v>
+        <v>0.5592797588239729</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>129</v>
@@ -1340,19 +1340,19 @@
         <v>138508</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123317</v>
+        <v>124265</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>155003</v>
+        <v>154908</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5365014236413288</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4776595975027788</v>
+        <v>0.4813303728820477</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.600392726517964</v>
+        <v>0.6000252029372476</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>428</v>
@@ -1361,19 +1361,19 @@
         <v>463380</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>434050</v>
+        <v>434102</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>497733</v>
+        <v>493240</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5229781806122668</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4898765575988617</v>
+        <v>0.4899351397545655</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5617505262824987</v>
+        <v>0.5566793450590943</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>205791</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>181460</v>
+        <v>181403</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>229309</v>
+        <v>231521</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3277587139456782</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2890072009266487</v>
+        <v>0.2889172841367103</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.365215896463608</v>
+        <v>0.3687387842293958</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>74</v>
@@ -1411,19 +1411,19 @@
         <v>77694</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>62838</v>
+        <v>62929</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>92150</v>
+        <v>92988</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3009429263264792</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2433982021136266</v>
+        <v>0.2437506993777885</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3569364742205417</v>
+        <v>0.360184037968066</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>274</v>
@@ -1432,19 +1432,19 @@
         <v>283484</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>256530</v>
+        <v>254483</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>312592</v>
+        <v>310856</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3199453061706348</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2895245631678978</v>
+        <v>0.2872137497036194</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3527967582358341</v>
+        <v>0.3508372470728499</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>97209</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78856</v>
+        <v>77169</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>118024</v>
+        <v>116020</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1548235990798859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1255922225423369</v>
+        <v>0.1229051386282158</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1879748268137899</v>
+        <v>0.184783032048467</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>39</v>
@@ -1482,19 +1482,19 @@
         <v>41967</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30755</v>
+        <v>31054</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>54007</v>
+        <v>55264</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.162555650032192</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1191292067461102</v>
+        <v>0.1202850492066169</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2091933612579833</v>
+        <v>0.2140616939293652</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>130</v>
@@ -1503,19 +1503,19 @@
         <v>139176</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116506</v>
+        <v>118763</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>161549</v>
+        <v>163654</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1570765132170984</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1314912108504621</v>
+        <v>0.1340384371605942</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1823268610152251</v>
+        <v>0.1847032767986387</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>609718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>575398</v>
+        <v>572527</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>644901</v>
+        <v>643306</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5287538716974776</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4989908857739117</v>
+        <v>0.4965015315100088</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5592643431432953</v>
+        <v>0.5578817499029024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>370</v>
@@ -1628,19 +1628,19 @@
         <v>397368</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>368361</v>
+        <v>368811</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>425184</v>
+        <v>425788</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5197321752127404</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4817926413824433</v>
+        <v>0.4823816988956999</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5561139142273133</v>
+        <v>0.5569041333118774</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>941</v>
@@ -1649,19 +1649,19 @@
         <v>1007086</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>962951</v>
+        <v>962694</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1056280</v>
+        <v>1050200</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5251570081934129</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.502142480577112</v>
+        <v>0.5020081901849874</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5508097315833569</v>
+        <v>0.5476395673550275</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>408385</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>374598</v>
+        <v>377630</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>441303</v>
+        <v>445244</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3541556377025231</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3248554570533713</v>
+        <v>0.3274849847793267</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3827023899903985</v>
+        <v>0.3861204696387581</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>238</v>
@@ -1699,19 +1699,19 @@
         <v>257344</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>232068</v>
+        <v>231750</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>285324</v>
+        <v>285298</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.336589369121474</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3035296993930708</v>
+        <v>0.303114973061615</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3731860751530228</v>
+        <v>0.3731515103380403</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>617</v>
@@ -1720,19 +1720,19 @@
         <v>665728</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>620912</v>
+        <v>617446</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>711331</v>
+        <v>706535</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3471521355930622</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3237822859216155</v>
+        <v>0.3219746940083856</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3709321849400141</v>
+        <v>0.3684314260827271</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>135020</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>113616</v>
+        <v>114841</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>158594</v>
+        <v>159467</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1170904905999993</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09852912903005218</v>
+        <v>0.09959144873320949</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1375347110432451</v>
+        <v>0.1382912118463611</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>101</v>
@@ -1770,19 +1770,19 @@
         <v>109851</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90758</v>
+        <v>91202</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>131532</v>
+        <v>131545</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1436784556657856</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1187052130986874</v>
+        <v>0.1192866626254051</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1720352506635656</v>
+        <v>0.1720520809014078</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>228</v>
@@ -1791,19 +1791,19 @@
         <v>244871</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>216352</v>
+        <v>215888</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>274338</v>
+        <v>277188</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1276908562135248</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1128194116299397</v>
+        <v>0.112577501574833</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1430567486517449</v>
+        <v>0.1445429979565326</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>293632</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>269711</v>
+        <v>270775</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>315182</v>
+        <v>317674</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5761642843326679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5292264807407216</v>
+        <v>0.5313134817970154</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6184492636502807</v>
+        <v>0.6233380307631593</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>389</v>
@@ -1916,19 +1916,19 @@
         <v>423613</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>396058</v>
+        <v>395351</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>451748</v>
+        <v>450849</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.560156814033225</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5237202528691119</v>
+        <v>0.5227850960963906</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5973605876046608</v>
+        <v>0.5961713984990576</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>668</v>
@@ -1937,19 +1937,19 @@
         <v>717245</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>679015</v>
+        <v>682349</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>753005</v>
+        <v>753893</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5666013227428827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5364004693836271</v>
+        <v>0.5390342775034572</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5948504788871789</v>
+        <v>0.5955514815093949</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>162865</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>142498</v>
+        <v>142073</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>184086</v>
+        <v>185715</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3195739892583416</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2796089791830488</v>
+        <v>0.2787748227203169</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3612123685194537</v>
+        <v>0.3644094867723466</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>213</v>
@@ -1987,19 +1987,19 @@
         <v>229634</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>203409</v>
+        <v>205268</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>254680</v>
+        <v>254839</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.303652606453995</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2689737834266846</v>
+        <v>0.2714329311191903</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3367709805251514</v>
+        <v>0.3369816957509434</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>368</v>
@@ -2008,19 +2008,19 @@
         <v>392500</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>359569</v>
+        <v>359786</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>431394</v>
+        <v>429348</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.310062456869646</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.284048080117376</v>
+        <v>0.2842198672758628</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3407878764833741</v>
+        <v>0.3391715415289403</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>53135</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40045</v>
+        <v>39865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67833</v>
+        <v>67712</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1042617264089905</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07857634204275614</v>
+        <v>0.07822212063453181</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.133102383919311</v>
+        <v>0.1328642104882775</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>96</v>
@@ -2058,19 +2058,19 @@
         <v>102993</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85108</v>
+        <v>83469</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>121947</v>
+        <v>122884</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.13619057951278</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1125406874486544</v>
+        <v>0.1103736009656788</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1612543133950129</v>
+        <v>0.1624928252337375</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>148</v>
@@ -2079,19 +2079,19 @@
         <v>156128</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>133964</v>
+        <v>135033</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>180691</v>
+        <v>182350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1233362203874713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1058271397669793</v>
+        <v>0.1066717445729164</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1427401712011209</v>
+        <v>0.1440508822554928</v>
       </c>
     </row>
     <row r="23">
@@ -2183,19 +2183,19 @@
         <v>134030</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>118146</v>
+        <v>118374</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>150272</v>
+        <v>150467</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5022071076341198</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4426909014811506</v>
+        <v>0.4435437191613575</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5630648517559735</v>
+        <v>0.5637976969379573</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>518</v>
@@ -2204,19 +2204,19 @@
         <v>554922</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>521893</v>
+        <v>519968</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>587615</v>
+        <v>589582</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5021009992806611</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4722159214162716</v>
+        <v>0.4704745826743586</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5316822173352371</v>
+        <v>0.533462395749752</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>650</v>
@@ -2225,19 +2225,19 @@
         <v>688952</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>652147</v>
+        <v>652504</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>727568</v>
+        <v>726257</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5021216383002274</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4752976937484232</v>
+        <v>0.4755576904603569</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5302664103427893</v>
+        <v>0.5293104597159758</v>
       </c>
     </row>
     <row r="25">
@@ -2254,19 +2254,19 @@
         <v>99949</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>84726</v>
+        <v>83373</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>114944</v>
+        <v>115865</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3745052881287487</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3174678889169254</v>
+        <v>0.3123978745751874</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4306913017499309</v>
+        <v>0.4341445004926889</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>398</v>
@@ -2275,19 +2275,19 @@
         <v>420873</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>389022</v>
+        <v>389292</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>452059</v>
+        <v>456498</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3808117053742989</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.351992476608704</v>
+        <v>0.3522373670744573</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4090292477603556</v>
+        <v>0.4130455495573289</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>498</v>
@@ -2296,19 +2296,19 @@
         <v>520821</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>480130</v>
+        <v>486803</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>556259</v>
+        <v>559503</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3795850510659306</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3499280572405736</v>
+        <v>0.3547920095366476</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4054124916279768</v>
+        <v>0.407777137446045</v>
       </c>
     </row>
     <row r="26">
@@ -2325,19 +2325,19 @@
         <v>32903</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>22707</v>
+        <v>22267</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>45438</v>
+        <v>44753</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1232876042371316</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.08508237028138631</v>
+        <v>0.08343294746576373</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.17025546637684</v>
+        <v>0.1676898248705948</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>125</v>
@@ -2346,19 +2346,19 @@
         <v>129405</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>109146</v>
+        <v>109867</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>150808</v>
+        <v>153342</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1170872953450401</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09875731736077828</v>
+        <v>0.09940947357378063</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1364535658151606</v>
+        <v>0.1387461641153672</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>158</v>
@@ -2367,19 +2367,19 @@
         <v>162308</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>139164</v>
+        <v>140182</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>188957</v>
+        <v>186217</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1182933106338421</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1014256912450432</v>
+        <v>0.1021676384713776</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1377155196967467</v>
+        <v>0.1357184978858815</v>
       </c>
     </row>
     <row r="27">
@@ -2471,19 +2471,19 @@
         <v>1793987</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1735220</v>
+        <v>1732481</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1853604</v>
+        <v>1853456</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5255539955902701</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5083379840982126</v>
+        <v>0.5075354784856634</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5430188298031778</v>
+        <v>0.5429754960367962</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1698</v>
@@ -2492,19 +2492,19 @@
         <v>1835429</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1774334</v>
+        <v>1774128</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1898559</v>
+        <v>1892117</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5192282324568506</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5019449429301531</v>
+        <v>0.5018866542531043</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5370872321930664</v>
+        <v>0.5352649124889907</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3369</v>
@@ -2513,19 +2513,19 @@
         <v>3629416</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3542138</v>
+        <v>3544404</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3712285</v>
+        <v>3718597</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5223358534065548</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5097750446878235</v>
+        <v>0.5101010853952985</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5342620868427199</v>
+        <v>0.5351705597237956</v>
       </c>
     </row>
     <row r="29">
@@ -2542,19 +2542,19 @@
         <v>1188036</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1128903</v>
+        <v>1128916</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1240985</v>
+        <v>1247910</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3480387039224253</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3307155688616883</v>
+        <v>0.3307193131184258</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3635502048916934</v>
+        <v>0.3655789748837069</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1127</v>
@@ -2563,19 +2563,19 @@
         <v>1214730</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1152944</v>
+        <v>1153245</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1269943</v>
+        <v>1274048</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3436375185776732</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3261586435528719</v>
+        <v>0.3262438497758754</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3592567572798643</v>
+        <v>0.3604182151919952</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2242</v>
@@ -2584,19 +2584,19 @@
         <v>2402766</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2328846</v>
+        <v>2321131</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2498047</v>
+        <v>2491708</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3457996633643828</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3351612616693349</v>
+        <v>0.3340509154247306</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3595122428077956</v>
+        <v>0.3585999753593728</v>
       </c>
     </row>
     <row r="30">
@@ -2613,19 +2613,19 @@
         <v>431493</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>392508</v>
+        <v>395254</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>470593</v>
+        <v>475625</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1264073004873047</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1149863711268172</v>
+        <v>0.1157908470731479</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1378615833127248</v>
+        <v>0.139335752023263</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>452</v>
@@ -2634,19 +2634,19 @@
         <v>484758</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>446579</v>
+        <v>444430</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>527121</v>
+        <v>528834</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1371342489654762</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1263336814762271</v>
+        <v>0.1257258504918555</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1491182957239428</v>
+        <v>0.1496029851951927</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>863</v>
@@ -2655,19 +2655,19 @@
         <v>916252</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>862452</v>
+        <v>857269</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>976369</v>
+        <v>974259</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1318644832290624</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1241217645562431</v>
+        <v>0.1233758769600854</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.140516341719098</v>
+        <v>0.1402126839487529</v>
       </c>
     </row>
     <row r="31">
@@ -3001,19 +3001,19 @@
         <v>281187</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>259924</v>
+        <v>260395</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>299919</v>
+        <v>301765</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6568423101466863</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.607173560471957</v>
+        <v>0.6082739176398795</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7005987064229338</v>
+        <v>0.7049109060441024</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>209</v>
@@ -3022,19 +3022,19 @@
         <v>216518</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>197190</v>
+        <v>198084</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>234440</v>
+        <v>235134</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6276734225809262</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5716405589918769</v>
+        <v>0.5742331579205533</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6796268429602023</v>
+        <v>0.6816401320047083</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>470</v>
@@ -3043,19 +3043,19 @@
         <v>497705</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>470899</v>
+        <v>467528</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>524600</v>
+        <v>523244</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.6438263143784857</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6091502272059424</v>
+        <v>0.6047904423991121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6786172326328278</v>
+        <v>0.676863602510179</v>
       </c>
     </row>
     <row r="5">
@@ -3072,19 +3072,19 @@
         <v>95119</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77410</v>
+        <v>77504</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>114487</v>
+        <v>114298</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2221938973273679</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1808271329636179</v>
+        <v>0.1810471554021471</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2674370088841332</v>
+        <v>0.2669961484763531</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>71</v>
@@ -3093,19 +3093,19 @@
         <v>75543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>61093</v>
+        <v>60188</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>92651</v>
+        <v>92117</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2189930310273058</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1771051823377164</v>
+        <v>0.1744823721358985</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2685902144544374</v>
+        <v>0.2670413457183669</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>158</v>
@@ -3114,19 +3114,19 @@
         <v>170661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>148348</v>
+        <v>148540</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>196250</v>
+        <v>195421</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2207655788108575</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1919015585247106</v>
+        <v>0.1921504663105262</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2538675970154604</v>
+        <v>0.2527951774113313</v>
       </c>
     </row>
     <row r="6">
@@ -3143,19 +3143,19 @@
         <v>51783</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>37832</v>
+        <v>39586</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>67304</v>
+        <v>68006</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1209637925259459</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08837498830780127</v>
+        <v>0.09247165507208295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.157220732976895</v>
+        <v>0.1588584244335622</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>50</v>
@@ -3164,19 +3164,19 @@
         <v>52893</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39653</v>
+        <v>40788</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>68742</v>
+        <v>69910</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.153333546391768</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1149529966707416</v>
+        <v>0.1182420479320201</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1992797642881185</v>
+        <v>0.2026658655076903</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>97</v>
@@ -3185,19 +3185,19 @@
         <v>104676</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>86394</v>
+        <v>85902</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>122417</v>
+        <v>125838</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1354081068106567</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1117585488139686</v>
+        <v>0.1111214379688424</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1583578298040003</v>
+        <v>0.1627826761288076</v>
       </c>
     </row>
     <row r="7">
@@ -3289,19 +3289,19 @@
         <v>234536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>216081</v>
+        <v>215513</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>253051</v>
+        <v>255512</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.62508691824697</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5759007363594595</v>
+        <v>0.5743860272909705</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6744347679841313</v>
+        <v>0.680994084721378</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>225</v>
@@ -3310,19 +3310,19 @@
         <v>235421</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>217006</v>
+        <v>215550</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>254317</v>
+        <v>253054</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6387561127345337</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5887923841559278</v>
+        <v>0.5848430227077227</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6900282281337919</v>
+        <v>0.6866004298138045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>446</v>
@@ -3331,19 +3331,19 @@
         <v>469956</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>443811</v>
+        <v>441335</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>496834</v>
+        <v>494395</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6318604656530616</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5967084421224647</v>
+        <v>0.593378377208318</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.667997348254518</v>
+        <v>0.6647182812969893</v>
       </c>
     </row>
     <row r="9">
@@ -3360,19 +3360,19 @@
         <v>98605</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>81829</v>
+        <v>80574</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>115512</v>
+        <v>115419</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2628019398882292</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2180919507108261</v>
+        <v>0.2147473623150717</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3078633315469737</v>
+        <v>0.3076145606880525</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>81</v>
@@ -3381,19 +3381,19 @@
         <v>85003</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>69052</v>
+        <v>68671</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>101547</v>
+        <v>101151</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2306353338315888</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1873561669650189</v>
+        <v>0.1863224324312104</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2755233285947721</v>
+        <v>0.2744491828765735</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>172</v>
@@ -3402,19 +3402,19 @@
         <v>183608</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>158742</v>
+        <v>159754</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>208834</v>
+        <v>207264</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2468623004884125</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2134298474557605</v>
+        <v>0.2147902407075208</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2807795384434717</v>
+        <v>0.2786679542310594</v>
       </c>
     </row>
     <row r="10">
@@ -3431,19 +3431,19 @@
         <v>42065</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>31410</v>
+        <v>30491</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>57414</v>
+        <v>55172</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1121111418648008</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08371395528463561</v>
+        <v>0.08126562468515254</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1530209771656206</v>
+        <v>0.147044860336466</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>43</v>
@@ -3452,19 +3452,19 @@
         <v>48137</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35250</v>
+        <v>36314</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62500</v>
+        <v>62517</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1306085534338775</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09564187949783866</v>
+        <v>0.09853039120584829</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1695772650687643</v>
+        <v>0.1696241634749442</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>83</v>
@@ -3473,19 +3473,19 @@
         <v>90202</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>72394</v>
+        <v>73708</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>110073</v>
+        <v>110758</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1212772338585258</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09733385689810782</v>
+        <v>0.09910142879327823</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1479941071374317</v>
+        <v>0.1489153495759955</v>
       </c>
     </row>
     <row r="11">
@@ -3577,19 +3577,19 @@
         <v>335908</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>312594</v>
+        <v>314116</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>358245</v>
+        <v>356381</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6473305863069386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6024009787000271</v>
+        <v>0.6053349672454973</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6903763179470547</v>
+        <v>0.6867841525345539</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>96</v>
@@ -3598,19 +3598,19 @@
         <v>104927</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>91405</v>
+        <v>91340</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117115</v>
+        <v>117931</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6316213818243737</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5502269395494555</v>
+        <v>0.5498332865605509</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7049867313121073</v>
+        <v>0.7099001685850118</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>418</v>
@@ -3619,19 +3619,19 @@
         <v>440834</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>416462</v>
+        <v>413666</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>467942</v>
+        <v>466143</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6435210649212985</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6079421594579029</v>
+        <v>0.603860654768209</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6830920596554765</v>
+        <v>0.6804659102157011</v>
       </c>
     </row>
     <row r="13">
@@ -3648,19 +3648,19 @@
         <v>132602</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>112427</v>
+        <v>114431</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>152369</v>
+        <v>152243</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2555380725458501</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2166594123344909</v>
+        <v>0.2205206855841627</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2936308526123577</v>
+        <v>0.293387905463334</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>37</v>
@@ -3669,19 +3669,19 @@
         <v>39647</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>28499</v>
+        <v>29991</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>50726</v>
+        <v>53871</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.238663311180744</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1715516463081778</v>
+        <v>0.1805378824724658</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.305349489176287</v>
+        <v>0.3242818899711922</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>164</v>
@@ -3690,19 +3690,19 @@
         <v>172249</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>150672</v>
+        <v>149254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>197528</v>
+        <v>196345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2514459007004015</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2199479163906265</v>
+        <v>0.217877270310419</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2883477072299493</v>
+        <v>0.2866197565962607</v>
       </c>
     </row>
     <row r="14">
@@ -3719,19 +3719,19 @@
         <v>50403</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38051</v>
+        <v>38333</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>64683</v>
+        <v>66285</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09713134114721123</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07332898619238537</v>
+        <v>0.07387098847711455</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1246511308493726</v>
+        <v>0.127738657151792</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>20</v>
@@ -3740,19 +3740,19 @@
         <v>21549</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12874</v>
+        <v>13242</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>30797</v>
+        <v>30598</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1297153069948823</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07749831392901763</v>
+        <v>0.07970920014474731</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1853871691191494</v>
+        <v>0.1841883337444157</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>70</v>
@@ -3761,19 +3761,19 @@
         <v>71951</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>57516</v>
+        <v>56754</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>90722</v>
+        <v>89364</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1050330343783</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0839599515975335</v>
+        <v>0.08284822609518226</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1324338067579513</v>
+        <v>0.1304518269979163</v>
       </c>
     </row>
     <row r="15">
@@ -3865,19 +3865,19 @@
         <v>749030</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>719419</v>
+        <v>718338</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>781115</v>
+        <v>781711</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6533214477090619</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.6274941409899386</v>
+        <v>0.6265516156162201</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6813068370237353</v>
+        <v>0.6818264154854374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>530</v>
@@ -3886,19 +3886,19 @@
         <v>545745</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>516832</v>
+        <v>520033</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>571975</v>
+        <v>572354</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.662470071834965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6273727699911731</v>
+        <v>0.6312595325810556</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.6943100111353722</v>
+        <v>0.6947705273803594</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1250</v>
@@ -3907,19 +3907,19 @@
         <v>1294775</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1254042</v>
+        <v>1256516</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1339901</v>
+        <v>1337356</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.6571465857216084</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.636473114830276</v>
+        <v>0.6377289355833279</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.6800498122571299</v>
+        <v>0.6787580067003324</v>
       </c>
     </row>
     <row r="17">
@@ -3936,19 +3936,19 @@
         <v>278555</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>249671</v>
+        <v>249734</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>307253</v>
+        <v>307888</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.242962314200988</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2177688175350149</v>
+        <v>0.2178241863556465</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2679929393622999</v>
+        <v>0.268547195276531</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -3957,19 +3957,19 @@
         <v>168954</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>144653</v>
+        <v>147652</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>195338</v>
+        <v>193185</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2050907807226952</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1755911533690493</v>
+        <v>0.179232362827709</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2371179717962951</v>
+        <v>0.2345044508954346</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>430</v>
@@ -3978,19 +3978,19 @@
         <v>447509</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>413484</v>
+        <v>409075</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>487316</v>
+        <v>490371</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2271278192750148</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2098584807394755</v>
+        <v>0.2076206740428158</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.247331198001762</v>
+        <v>0.2488816955904296</v>
       </c>
     </row>
     <row r="18">
@@ -4007,19 +4007,19 @@
         <v>118910</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>101646</v>
+        <v>100616</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>143355</v>
+        <v>141585</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1037162380899501</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.08865809001053816</v>
+        <v>0.0877600685411966</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1250378312591851</v>
+        <v>0.1234940835916117</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>103</v>
@@ -4028,19 +4028,19 @@
         <v>109104</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>90411</v>
+        <v>91592</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>130624</v>
+        <v>130406</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1324391474423397</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1097481172801223</v>
+        <v>0.1111823774516626</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1585627603564899</v>
+        <v>0.1582974748409339</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>216</v>
@@ -4049,19 +4049,19 @@
         <v>228014</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>197691</v>
+        <v>201489</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>258764</v>
+        <v>255645</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1157255950033767</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1003355435027278</v>
+        <v>0.1022633236655689</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1313326092702779</v>
+        <v>0.1297494185569092</v>
       </c>
     </row>
     <row r="19">
@@ -4153,19 +4153,19 @@
         <v>414733</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>393268</v>
+        <v>388900</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>439052</v>
+        <v>437710</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6713357374960182</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6365898624804579</v>
+        <v>0.6295200252359634</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7107016894502685</v>
+        <v>0.7085294397343272</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>482</v>
@@ -4174,19 +4174,19 @@
         <v>505567</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>477852</v>
+        <v>479472</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>528058</v>
+        <v>530952</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6893886461071415</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6515967123454235</v>
+        <v>0.6538048948417612</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7200567909275449</v>
+        <v>0.7240032017211252</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>884</v>
@@ -4195,19 +4195,19 @@
         <v>920300</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>885406</v>
+        <v>886352</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>953074</v>
+        <v>952490</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6811343641242018</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6553082139155885</v>
+        <v>0.6560083778736118</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.705390472916256</v>
+        <v>0.704958424041417</v>
       </c>
     </row>
     <row r="21">
@@ -4224,19 +4224,19 @@
         <v>150405</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>128843</v>
+        <v>129015</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>170398</v>
+        <v>171406</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2434635249933119</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2085607826909533</v>
+        <v>0.2088383473462782</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2758256772802281</v>
+        <v>0.2774574873275482</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>155</v>
@@ -4245,19 +4245,19 @@
         <v>164489</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>143164</v>
+        <v>143109</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>188511</v>
+        <v>189307</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2242963757663871</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1952182431364021</v>
+        <v>0.1951428708029526</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2570522975989193</v>
+        <v>0.2581383634484639</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>296</v>
@@ -4266,19 +4266,19 @@
         <v>314894</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>287452</v>
+        <v>284986</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>347264</v>
+        <v>344193</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2330601189357641</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2127492855305811</v>
+        <v>0.2109246732005784</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2570175205356629</v>
+        <v>0.2547447368791912</v>
       </c>
     </row>
     <row r="22">
@@ -4295,19 +4295,19 @@
         <v>52635</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40128</v>
+        <v>39588</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>67998</v>
+        <v>68702</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08520073751066998</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06495635307167637</v>
+        <v>0.06408193361269067</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1100689693280904</v>
+        <v>0.1112089891907991</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>57</v>
@@ -4316,19 +4316,19 @@
         <v>63300</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>48598</v>
+        <v>48609</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>80783</v>
+        <v>81019</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.08631497812647144</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06626781861631864</v>
+        <v>0.06628324938696036</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1101551016687524</v>
+        <v>0.1104773801313919</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>108</v>
@@ -4337,19 +4337,19 @@
         <v>115934</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>97314</v>
+        <v>97111</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>139823</v>
+        <v>138836</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08580551694003401</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07202439015684858</v>
+        <v>0.07187378228206111</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1034863925988869</v>
+        <v>0.1027558171214806</v>
       </c>
     </row>
     <row r="23">
@@ -4441,19 +4441,19 @@
         <v>188135</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>171284</v>
+        <v>170494</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>203026</v>
+        <v>203116</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.6633805591302688</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6039627757347626</v>
+        <v>0.6011750173997434</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.7158859907136196</v>
+        <v>0.7162036040735006</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>632</v>
@@ -4462,19 +4462,19 @@
         <v>691533</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>655579</v>
+        <v>654168</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>719312</v>
+        <v>722929</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.6423885818517706</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6089901023429295</v>
+        <v>0.6076789512742816</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6681939637429491</v>
+        <v>0.6715535324646787</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>813</v>
@@ -4483,19 +4483,19 @@
         <v>879668</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>847368</v>
+        <v>841514</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>913482</v>
+        <v>916551</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.6467657096948883</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.6230177814311969</v>
+        <v>0.6187131130340716</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.671626872697208</v>
+        <v>0.6738835611726398</v>
       </c>
     </row>
     <row r="25">
@@ -4512,19 +4512,19 @@
         <v>77783</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>64204</v>
+        <v>63298</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>94278</v>
+        <v>94780</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2742684406858359</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2263891249640686</v>
+        <v>0.2231949695321218</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3324324562493384</v>
+        <v>0.3342022579634586</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>253</v>
@@ -4533,19 +4533,19 @@
         <v>270524</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>243607</v>
+        <v>243629</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>300690</v>
+        <v>303331</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2512986966565997</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2262952996896039</v>
+        <v>0.2263152552706288</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2793215415676604</v>
+        <v>0.2817746508194166</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>325</v>
@@ -4554,19 +4554,19 @@
         <v>348306</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>317941</v>
+        <v>317852</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>382306</v>
+        <v>385321</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2560882171865518</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2337625437244353</v>
+        <v>0.2336968995947582</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2810859622049229</v>
+        <v>0.2833025733581143</v>
       </c>
     </row>
     <row r="26">
@@ -4583,19 +4583,19 @@
         <v>17683</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10871</v>
+        <v>10121</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28861</v>
+        <v>27718</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.06235100018389528</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.03833100091101577</v>
+        <v>0.03568596523766102</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.101767582833349</v>
+        <v>0.09773702863907409</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>102</v>
@@ -4604,19 +4604,19 @@
         <v>114446</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94057</v>
+        <v>94206</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138843</v>
+        <v>138349</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1063127214916297</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.08737234988679955</v>
+        <v>0.08751130106049981</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1289760477118644</v>
+        <v>0.1285174728447079</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>118</v>
@@ -4625,19 +4625,19 @@
         <v>132129</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>111341</v>
+        <v>110464</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>157671</v>
+        <v>156063</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09714607311855983</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08186220571713257</v>
+        <v>0.08121713504355588</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1159261023099871</v>
+        <v>0.114743311054805</v>
       </c>
     </row>
     <row r="27">
@@ -4729,19 +4729,19 @@
         <v>2203529</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2142779</v>
+        <v>2140822</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2262096</v>
+        <v>2262268</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6538514914779915</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6358250521792924</v>
+        <v>0.63524435803936</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6712300997512315</v>
+        <v>0.6712809698496759</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2174</v>
@@ -4750,19 +4750,19 @@
         <v>2299711</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2242806</v>
+        <v>2243441</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2360036</v>
+        <v>2360238</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.6545729866106398</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.6383759750903807</v>
+        <v>0.6385568567943372</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.6717436073237339</v>
+        <v>0.6718009466692811</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4281</v>
@@ -4771,19 +4771,19 @@
         <v>4503240</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>4427356</v>
+        <v>4419670</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4576916</v>
+        <v>4581430</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.6542197451806125</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.6431954557065995</v>
+        <v>0.6420788665416607</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.6649232176078989</v>
+        <v>0.665579059937169</v>
       </c>
     </row>
     <row r="29">
@@ -4800,19 +4800,19 @@
         <v>833068</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>782643</v>
+        <v>781790</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>883121</v>
+        <v>885491</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2471957534830884</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2322329406991086</v>
+        <v>0.231979882450289</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2620478103930178</v>
+        <v>0.2627510602380793</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>760</v>
@@ -4821,19 +4821,19 @@
         <v>804160</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>758755</v>
+        <v>755870</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>857373</v>
+        <v>852193</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.228890349581397</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2159666168879066</v>
+        <v>0.2151453558876048</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2440363045339561</v>
+        <v>0.2425621744195536</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1545</v>
@@ -4842,19 +4842,19 @@
         <v>1637229</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1572237</v>
+        <v>1565195</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1714411</v>
+        <v>1715048</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2378526096977272</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.228410788132765</v>
+        <v>0.2273877183493919</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.249065511609821</v>
+        <v>0.2491580224983191</v>
       </c>
     </row>
     <row r="30">
@@ -4871,19 +4871,19 @@
         <v>333478</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>299737</v>
+        <v>300046</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>368163</v>
+        <v>372318</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.09895275503892015</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08894087186468431</v>
+        <v>0.08903241550063611</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1092445935069637</v>
+        <v>0.1104777422747159</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>375</v>
@@ -4892,19 +4892,19 @@
         <v>409428</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>367397</v>
+        <v>369953</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>448904</v>
+        <v>451355</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1165366638079633</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1045731507183185</v>
+        <v>0.1053006195575298</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1277727860654383</v>
+        <v>0.1284703825986245</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>692</v>
@@ -4913,19 +4913,19 @@
         <v>742906</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>691769</v>
+        <v>693672</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>793703</v>
+        <v>795356</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1079276451216603</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1004984771692556</v>
+        <v>0.1007750466759995</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.115307238920587</v>
+        <v>0.1155473227875392</v>
       </c>
     </row>
     <row r="31">
@@ -5259,19 +5259,19 @@
         <v>378738</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>352565</v>
+        <v>354579</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>398499</v>
+        <v>401348</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6878417746975973</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.6403077435330709</v>
+        <v>0.6439658460767034</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7237309844012021</v>
+        <v>0.7289047873649341</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>473</v>
@@ -5280,19 +5280,19 @@
         <v>333769</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>316219</v>
+        <v>313173</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>351681</v>
+        <v>351734</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6887840023798587</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6525660654350688</v>
+        <v>0.646280734288378</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7257479104446311</v>
+        <v>0.7258587508815754</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>843</v>
@@ -5301,19 +5301,19 @@
         <v>712507</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>683481</v>
+        <v>683613</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>740530</v>
+        <v>739137</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6882828334601365</v>
+        <v>0.6882828334601364</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6602436174876473</v>
+        <v>0.6603710202391736</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7153535698035222</v>
+        <v>0.7140076418413042</v>
       </c>
     </row>
     <row r="5">
@@ -5330,19 +5330,19 @@
         <v>105105</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>88060</v>
+        <v>87757</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>130041</v>
+        <v>126181</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1908848589183474</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1599295908957939</v>
+        <v>0.1593786808940835</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.236172850797066</v>
+        <v>0.2291632188412173</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>128</v>
@@ -5351,19 +5351,19 @@
         <v>87509</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74837</v>
+        <v>74514</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>103101</v>
+        <v>103992</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.180588970844785</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1544382531344793</v>
+        <v>0.1537701994949117</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2127648488304314</v>
+        <v>0.2146046704178016</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>243</v>
@@ -5372,19 +5372,19 @@
         <v>192614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>170268</v>
+        <v>171600</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>216632</v>
+        <v>216769</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1860653320264306</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1644786870425724</v>
+        <v>0.1657663113418484</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.209266483036027</v>
+        <v>0.2093992801204298</v>
       </c>
     </row>
     <row r="6">
@@ -5401,19 +5401,19 @@
         <v>66775</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>53127</v>
+        <v>53368</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>85659</v>
+        <v>83475</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1212733663840553</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09648561906979716</v>
+        <v>0.0969230172818015</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1555687383413911</v>
+        <v>0.1516032558620649</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>82</v>
@@ -5422,19 +5422,19 @@
         <v>63299</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>49959</v>
+        <v>50444</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>78816</v>
+        <v>80874</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1306270267753564</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1030979672333824</v>
+        <v>0.104098218987055</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.162650043943926</v>
+        <v>0.1668957327694724</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>151</v>
@@ -5443,19 +5443,19 @@
         <v>130074</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>111022</v>
+        <v>109819</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>155999</v>
+        <v>150715</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.125651834513433</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1072472286836742</v>
+        <v>0.1060857843836832</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1506955379355858</v>
+        <v>0.1455905937838179</v>
       </c>
     </row>
     <row r="7">
@@ -5547,19 +5547,19 @@
         <v>339151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>319078</v>
+        <v>319475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>359495</v>
+        <v>359561</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.701867511532949</v>
+        <v>0.7018675115329491</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6603275289503582</v>
+        <v>0.6611477116227222</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7439687887490192</v>
+        <v>0.7441056208080237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>389</v>
@@ -5568,19 +5568,19 @@
         <v>279041</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>262457</v>
+        <v>262726</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>295545</v>
+        <v>294962</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.6594495977373215</v>
+        <v>0.6594495977373214</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.620256179210205</v>
+        <v>0.6208920431897658</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6984510001204588</v>
+        <v>0.6970736760348792</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>717</v>
@@ -5589,19 +5589,19 @@
         <v>618192</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>591764</v>
+        <v>590714</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>646176</v>
+        <v>647542</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6820641926471483</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.652905821373601</v>
+        <v>0.6517463049853708</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7129386998709492</v>
+        <v>0.7144462970242484</v>
       </c>
     </row>
     <row r="9">
@@ -5618,19 +5618,19 @@
         <v>94987</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>77303</v>
+        <v>78764</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>111991</v>
+        <v>113836</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1965741012519601</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1599778911173506</v>
+        <v>0.1630007696727847</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2317642349863416</v>
+        <v>0.2355828178890392</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>120</v>
@@ -5639,19 +5639,19 @@
         <v>85642</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>73073</v>
+        <v>71422</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>101240</v>
+        <v>100063</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2023955584543104</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1726903979159837</v>
+        <v>0.1687899194816873</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2392574080573525</v>
+        <v>0.2364764338447224</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>221</v>
@@ -5660,19 +5660,19 @@
         <v>180629</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>156598</v>
+        <v>157517</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>203953</v>
+        <v>203111</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1992919193397056</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1727780133834289</v>
+        <v>0.1737918105476096</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.225025978075664</v>
+        <v>0.2240961383989353</v>
       </c>
     </row>
     <row r="10">
@@ -5689,19 +5689,19 @@
         <v>49074</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>36736</v>
+        <v>36654</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>64359</v>
+        <v>62160</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1015583872150909</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07602535559708531</v>
+        <v>0.07585435223113753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1331902195198183</v>
+        <v>0.1286386907984368</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>81</v>
@@ -5710,19 +5710,19 @@
         <v>58459</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>45494</v>
+        <v>46687</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71143</v>
+        <v>72392</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1381548438083681</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.107514742804034</v>
+        <v>0.1103345021579131</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1681294754861648</v>
+        <v>0.1710819512086887</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>133</v>
@@ -5731,19 +5731,19 @@
         <v>107533</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>89886</v>
+        <v>89987</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>127085</v>
+        <v>126492</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1186438880131461</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09917301426868556</v>
+        <v>0.09928447642276692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1402159340763063</v>
+        <v>0.13956068301695</v>
       </c>
     </row>
     <row r="11">
@@ -5835,19 +5835,19 @@
         <v>332487</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>309506</v>
+        <v>311605</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>351805</v>
+        <v>352796</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7050003892029892</v>
+        <v>0.7050003892029891</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.6562718000915669</v>
+        <v>0.660723583646485</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7459637768822072</v>
+        <v>0.7480634807398328</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>211</v>
@@ -5856,19 +5856,19 @@
         <v>134284</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>123971</v>
+        <v>123395</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>144297</v>
+        <v>144125</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.7161933325623345</v>
+        <v>0.7161933325623346</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6611912674529243</v>
+        <v>0.6581175522400314</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7695971912438477</v>
+        <v>0.7686812013049789</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>562</v>
@@ -5877,19 +5877,19 @@
         <v>466771</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>444952</v>
+        <v>440975</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>489626</v>
+        <v>490972</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7081844551018286</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6750815067604523</v>
+        <v>0.6690475459728231</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7428605730061703</v>
+        <v>0.7449020230892174</v>
       </c>
     </row>
     <row r="13">
@@ -5906,19 +5906,19 @@
         <v>90135</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>73021</v>
+        <v>72922</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>109253</v>
+        <v>109193</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1911211119362674</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1548319410230846</v>
+        <v>0.1546238890050034</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2316579194968183</v>
+        <v>0.2315309820354627</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>43</v>
@@ -5927,19 +5927,19 @@
         <v>29017</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21838</v>
+        <v>21385</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>37654</v>
+        <v>37429</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1547597595731135</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.116470143272107</v>
+        <v>0.1140533213004807</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.200824508427724</v>
+        <v>0.1996243783925514</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>132</v>
@@ -5948,19 +5948,19 @@
         <v>119152</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>100220</v>
+        <v>99506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>139877</v>
+        <v>140474</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.180777367813008</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1520536542653077</v>
+        <v>0.1509705219329961</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2122211387697301</v>
+        <v>0.213127848886934</v>
       </c>
     </row>
     <row r="14">
@@ -5977,19 +5977,19 @@
         <v>48990</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>37159</v>
+        <v>36153</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66548</v>
+        <v>66613</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1038784988607436</v>
+        <v>0.1038784988607435</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0787906708837811</v>
+        <v>0.0766575541650765</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1411085695651294</v>
+        <v>0.1412463650992197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>35</v>
@@ -5998,19 +5998,19 @@
         <v>24196</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17791</v>
+        <v>16804</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>32524</v>
+        <v>33531</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.129046907864552</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.09488710982166586</v>
+        <v>0.08962384700415199</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1734624074200305</v>
+        <v>0.1788364688386104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>83</v>
@@ -6019,19 +6019,19 @@
         <v>73186</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59196</v>
+        <v>56453</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>91543</v>
+        <v>90539</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1110381770851634</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08981164293375943</v>
+        <v>0.08565090146555245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1388897278450414</v>
+        <v>0.137365190503258</v>
       </c>
     </row>
     <row r="15">
@@ -6123,19 +6123,19 @@
         <v>853083</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>822762</v>
+        <v>816945</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>883009</v>
+        <v>881628</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.7555514425171183</v>
+        <v>0.7555514425171184</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7286971799802563</v>
+        <v>0.723545355377309</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7820565162207692</v>
+        <v>0.780833327589342</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>931</v>
@@ -6144,19 +6144,19 @@
         <v>640723</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>616840</v>
+        <v>619747</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>663454</v>
+        <v>662817</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.7445926391666039</v>
+        <v>0.744592639166604</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7168371330939308</v>
+        <v>0.720215392072979</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7710076537991664</v>
+        <v>0.7702678897515283</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1779</v>
@@ -6165,19 +6165,19 @@
         <v>1493807</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1456392</v>
+        <v>1452914</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1532518</v>
+        <v>1531380</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7508117310806075</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7320066404488189</v>
+        <v>0.7302585359853093</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7702688036431988</v>
+        <v>0.7696965193764476</v>
       </c>
     </row>
     <row r="17">
@@ -6194,19 +6194,19 @@
         <v>190681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>166339</v>
+        <v>165851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>220094</v>
+        <v>221646</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1688805957713784</v>
+        <v>0.1688805957713785</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1473217425745142</v>
+        <v>0.1468893172915065</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1949310344852099</v>
+        <v>0.1963055728322131</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>169</v>
@@ -6215,19 +6215,19 @@
         <v>124471</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>106828</v>
+        <v>107952</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>146401</v>
+        <v>144559</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1446494691253256</v>
+        <v>0.1446494691253257</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1241465252733094</v>
+        <v>0.1254524964562682</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.170133849112566</v>
+        <v>0.1679933275364239</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>351</v>
@@ -6236,19 +6236,19 @@
         <v>315152</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>280423</v>
+        <v>283642</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>346498</v>
+        <v>348332</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1584005694025827</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1409449565701203</v>
+        <v>0.1425632987507305</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1741555293761613</v>
+        <v>0.1750772073305161</v>
       </c>
     </row>
     <row r="18">
@@ -6265,19 +6265,19 @@
         <v>85323</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>68303</v>
+        <v>68312</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>104945</v>
+        <v>106377</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.07556796171150343</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06049368660612904</v>
+        <v>0.06050170849149686</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.09294657052542564</v>
+        <v>0.09421482511211317</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>129</v>
@@ -6286,19 +6286,19 @@
         <v>95307</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>79586</v>
+        <v>80111</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>114576</v>
+        <v>112932</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1107578917080704</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09248748637322633</v>
+        <v>0.0930974661977933</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1331500989718107</v>
+        <v>0.1312400272910801</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>214</v>
@@ -6307,19 +6307,19 @@
         <v>180630</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>156491</v>
+        <v>155425</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>207465</v>
+        <v>207453</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09078769951680989</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.07865487109415079</v>
+        <v>0.07811926876760354</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1042753667208046</v>
+        <v>0.1042693256788281</v>
       </c>
     </row>
     <row r="19">
@@ -6411,19 +6411,19 @@
         <v>442507</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>421184</v>
+        <v>421861</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>464047</v>
+        <v>462237</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.7791116983084435</v>
+        <v>0.7791116983084434</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7415673514508188</v>
+        <v>0.7427595942128903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8170362773549575</v>
+        <v>0.8138492574051019</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>996</v>
@@ -6432,19 +6432,19 @@
         <v>634879</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>614013</v>
+        <v>612580</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>655181</v>
+        <v>656416</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7641318104185517</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7390174147268118</v>
+        <v>0.7372927077658592</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7885674945650512</v>
+        <v>0.790053630692411</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1420</v>
@@ -6453,19 +6453,19 @@
         <v>1077386</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1046835</v>
+        <v>1048443</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1104871</v>
+        <v>1106323</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7702141296593394</v>
+        <v>0.7702141296593393</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7483733800896087</v>
+        <v>0.749522617055549</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7898628786289537</v>
+        <v>0.7909009439248981</v>
       </c>
     </row>
     <row r="21">
@@ -6482,19 +6482,19 @@
         <v>76335</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>59712</v>
+        <v>60414</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>93748</v>
+        <v>95393</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1344012030912881</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1051336613836306</v>
+        <v>0.1063685454695569</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1650596056810859</v>
+        <v>0.1679552744014282</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>191</v>
@@ -6503,19 +6503,19 @@
         <v>129996</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>111885</v>
+        <v>114151</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>149993</v>
+        <v>150358</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1564619213856106</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1346632326530451</v>
+        <v>0.1373911781624149</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1805295194583497</v>
+        <v>0.1809686381011209</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>267</v>
@@ -6524,19 +6524,19 @@
         <v>206331</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>184343</v>
+        <v>181722</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>234388</v>
+        <v>230934</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1475045558610196</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1317853472854801</v>
+        <v>0.1299114905891653</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1675618147864882</v>
+        <v>0.1650928415937128</v>
       </c>
     </row>
     <row r="22">
@@ -6553,19 +6553,19 @@
         <v>49122</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35301</v>
+        <v>36679</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>65921</v>
+        <v>65120</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08648709860026838</v>
+        <v>0.08648709860026836</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06215335753442421</v>
+        <v>0.06458003714498606</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1160656174144197</v>
+        <v>0.1146552092285873</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>103</v>
@@ -6574,19 +6574,19 @@
         <v>65975</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>54305</v>
+        <v>52791</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>79440</v>
+        <v>79310</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0794062681958377</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.06536024324217146</v>
+        <v>0.06353806354102515</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09561289907829075</v>
+        <v>0.09545635416308536</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>150</v>
@@ -6595,19 +6595,19 @@
         <v>115096</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96743</v>
+        <v>97687</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>133941</v>
+        <v>136516</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08228131447964099</v>
+        <v>0.08228131447964097</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06916079967101285</v>
+        <v>0.06983563152493043</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09575306411387473</v>
+        <v>0.09759395145733732</v>
       </c>
     </row>
     <row r="23">
@@ -6699,19 +6699,19 @@
         <v>180742</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>158325</v>
+        <v>157178</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>197750</v>
+        <v>198191</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.761889925279833</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.6673948803758948</v>
+        <v>0.6625603928256014</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.8335866818141341</v>
+        <v>0.8354443970710631</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>907</v>
@@ -6720,19 +6720,19 @@
         <v>641842</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>615695</v>
+        <v>615605</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>665487</v>
+        <v>667505</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.7607576272571077</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.7297662775398025</v>
+        <v>0.7296591092332683</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7887827097892273</v>
+        <v>0.791175151950661</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>990</v>
@@ -6741,19 +6741,19 @@
         <v>822584</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>789486</v>
+        <v>784348</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>852560</v>
+        <v>850778</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.7610061317450486</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.7303863107824056</v>
+        <v>0.7256327798886246</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.7887382661147355</v>
+        <v>0.7870895900985891</v>
       </c>
     </row>
     <row r="25">
@@ -6770,19 +6770,19 @@
         <v>33736</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>19655</v>
+        <v>19531</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>52229</v>
+        <v>53143</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1422099010943311</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.08285077613214169</v>
+        <v>0.08233100852797276</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2201623879195858</v>
+        <v>0.2240173434084037</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>175</v>
@@ -6791,19 +6791,19 @@
         <v>138744</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>116754</v>
+        <v>116578</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>161822</v>
+        <v>160355</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1644496053478604</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1383848416428445</v>
+        <v>0.1381768226598228</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1918030442534496</v>
+        <v>0.190064061349395</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>193</v>
@@ -6812,19 +6812,19 @@
         <v>172480</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>147616</v>
+        <v>148612</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202551</v>
+        <v>205193</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1595686762933585</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1365655134655412</v>
+        <v>0.1374869187218632</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1873879858234638</v>
+        <v>0.1898321853688036</v>
       </c>
     </row>
     <row r="26">
@@ -6841,19 +6841,19 @@
         <v>22750</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11971</v>
+        <v>10984</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>41465</v>
+        <v>40739</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.09590017362583581</v>
+        <v>0.09590017362583583</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.05046002818872554</v>
+        <v>0.04630033836954543</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1747888035255835</v>
+        <v>0.1717309988416754</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>76</v>
@@ -6862,19 +6862,19 @@
         <v>63102</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>48173</v>
+        <v>49298</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>81142</v>
+        <v>82683</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.07479276739503181</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05709818112823428</v>
+        <v>0.05843163606985546</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09617522228965346</v>
+        <v>0.09800230024312481</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>87</v>
@@ -6883,19 +6883,19 @@
         <v>85852</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>65527</v>
+        <v>67366</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>108358</v>
+        <v>111272</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.07942519196159306</v>
+        <v>0.07942519196159308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06062140737487166</v>
+        <v>0.06232328309922871</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1002466017986866</v>
+        <v>0.1029421961437356</v>
       </c>
     </row>
     <row r="27">
@@ -6987,19 +6987,19 @@
         <v>2526706</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>2467278</v>
+        <v>2466439</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>2580102</v>
+        <v>2578663</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.7345676601762531</v>
+        <v>0.7345676601762529</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7172907120575612</v>
+        <v>0.7170467448377086</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7500910150743185</v>
+        <v>0.7496725085891667</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3907</v>
@@ -7008,19 +7008,19 @@
         <v>2664540</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>2619985</v>
+        <v>2617401</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>2714847</v>
+        <v>2711569</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.733980801723027</v>
+        <v>0.7339808017230269</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.7217077135053652</v>
+        <v>0.7209958086004016</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.7478386936713642</v>
+        <v>0.746935723429524</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6311</v>
@@ -7029,19 +7029,19 @@
         <v>5191246</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>5115363</v>
+        <v>5112412</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5267011</v>
+        <v>5263188</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.7342663229324468</v>
+        <v>0.7342663229324466</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.7235331910653513</v>
+        <v>0.7231158306741685</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.7449827119930985</v>
+        <v>0.7444419687436671</v>
       </c>
     </row>
     <row r="29">
@@ -7058,19 +7058,19 @@
         <v>590978</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>549539</v>
+        <v>539435</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>650192</v>
+        <v>642132</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1718100783077197</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1597627323238481</v>
+        <v>0.1568252882037794</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1890248456604835</v>
+        <v>0.1866814229671089</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>826</v>
@@ -7079,19 +7079,19 @@
         <v>595380</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>553623</v>
+        <v>557998</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>638456</v>
+        <v>638704</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1640049727505964</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1525023811488723</v>
+        <v>0.1537075115462987</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1758706204437544</v>
+        <v>0.1759390790784915</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1407</v>
@@ -7100,19 +7100,19 @@
         <v>1186359</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1131433</v>
+        <v>1129104</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1254171</v>
+        <v>1252379</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1678023504079645</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1600335274987039</v>
+        <v>0.1597040042202799</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1773939714122399</v>
+        <v>0.1771405170830108</v>
       </c>
     </row>
     <row r="30">
@@ -7129,19 +7129,19 @@
         <v>322034</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>285363</v>
+        <v>282324</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>362197</v>
+        <v>360785</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.09362226151602739</v>
+        <v>0.0936222615160274</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08296119672078769</v>
+        <v>0.08207777811883486</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1052984183296959</v>
+        <v>0.1048877852436722</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>506</v>
@@ -7150,19 +7150,19 @@
         <v>370338</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>336488</v>
+        <v>339635</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>402923</v>
+        <v>404865</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1020142255263766</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.09268989408156565</v>
+        <v>0.09355663269756094</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1109903059419276</v>
+        <v>0.1115252250176499</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>818</v>
@@ -7171,19 +7171,19 @@
         <v>692372</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>641363</v>
+        <v>644731</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>743286</v>
+        <v>743671</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09793132665958881</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.09071644243345474</v>
+        <v>0.09119278992916788</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1051327679932825</v>
+        <v>0.1051871844037207</v>
       </c>
     </row>
     <row r="31">
